--- a/papers/math-stats-mags.xlsx
+++ b/papers/math-stats-mags.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5883" uniqueCount="3906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5898" uniqueCount="3906">
   <si>
     <t xml:space="preserve">ISSN</t>
   </si>
@@ -11754,7 +11754,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -11884,14 +11883,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -11899,67 +11898,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -11978,35 +11935,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -12020,17 +11953,17 @@
   </sheetPr>
   <dimension ref="A1:C1959"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1854" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1860" activeCellId="0" sqref="A1860"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A798" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B822" activeCellId="0" sqref="B822"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -12041,7 +11974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
@@ -12052,7 +11985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
@@ -12063,7 +11996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -12074,7 +12007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
@@ -12085,7 +12018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
@@ -12096,7 +12029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>18</v>
       </c>
@@ -12107,7 +12040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>20</v>
       </c>
@@ -12118,7 +12051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>23</v>
       </c>
@@ -12129,7 +12062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>25</v>
       </c>
@@ -12140,7 +12073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>27</v>
       </c>
@@ -12151,7 +12084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>29</v>
       </c>
@@ -12162,7 +12095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>31</v>
       </c>
@@ -12173,7 +12106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>33</v>
       </c>
@@ -12184,7 +12117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>35</v>
       </c>
@@ -12195,7 +12128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>37</v>
       </c>
@@ -12206,7 +12139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>40</v>
       </c>
@@ -12217,7 +12150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>42</v>
       </c>
@@ -12228,7 +12161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>44</v>
       </c>
@@ -12239,7 +12172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>46</v>
       </c>
@@ -12250,7 +12183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>48</v>
       </c>
@@ -12261,7 +12194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>50</v>
       </c>
@@ -12272,7 +12205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>52</v>
       </c>
@@ -12283,7 +12216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>54</v>
       </c>
@@ -12294,7 +12227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>56</v>
       </c>
@@ -12305,7 +12238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>58</v>
       </c>
@@ -12316,7 +12249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>60</v>
       </c>
@@ -12327,7 +12260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>62</v>
       </c>
@@ -12338,7 +12271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>64</v>
       </c>
@@ -12349,7 +12282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>66</v>
       </c>
@@ -12360,7 +12293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>68</v>
       </c>
@@ -12371,7 +12304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>70</v>
       </c>
@@ -12382,7 +12315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>72</v>
       </c>
@@ -12393,7 +12326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>74</v>
       </c>
@@ -12404,7 +12337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>76</v>
       </c>
@@ -12415,7 +12348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>78</v>
       </c>
@@ -12426,7 +12359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>80</v>
       </c>
@@ -12437,7 +12370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>82</v>
       </c>
@@ -12448,7 +12381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>84</v>
       </c>
@@ -12459,7 +12392,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>87</v>
       </c>
@@ -12470,7 +12403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>89</v>
       </c>
@@ -12481,7 +12414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>91</v>
       </c>
@@ -12492,7 +12425,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>93</v>
       </c>
@@ -12503,7 +12436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>95</v>
       </c>
@@ -12514,7 +12447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>97</v>
       </c>
@@ -12525,7 +12458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>99</v>
       </c>
@@ -12536,7 +12469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>101</v>
       </c>
@@ -12547,7 +12480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>102</v>
       </c>
@@ -12558,7 +12491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>104</v>
       </c>
@@ -12569,7 +12502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>106</v>
       </c>
@@ -12580,7 +12513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>108</v>
       </c>
@@ -12591,7 +12524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>109</v>
       </c>
@@ -12602,7 +12535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>111</v>
       </c>
@@ -12613,7 +12546,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>113</v>
       </c>
@@ -12624,7 +12557,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>116</v>
       </c>
@@ -12635,7 +12568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>118</v>
       </c>
@@ -12646,7 +12579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>120</v>
       </c>
@@ -12657,7 +12590,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>122</v>
       </c>
@@ -12668,7 +12601,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>124</v>
       </c>
@@ -12679,7 +12612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>126</v>
       </c>
@@ -12690,7 +12623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>128</v>
       </c>
@@ -12701,7 +12634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>130</v>
       </c>
@@ -12712,7 +12645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>132</v>
       </c>
@@ -12723,7 +12656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>134</v>
       </c>
@@ -12734,7 +12667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>136</v>
       </c>
@@ -12745,7 +12678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>138</v>
       </c>
@@ -12756,7 +12689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>140</v>
       </c>
@@ -12767,7 +12700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>142</v>
       </c>
@@ -12778,7 +12711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>144</v>
       </c>
@@ -12789,7 +12722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>146</v>
       </c>
@@ -12800,7 +12733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>148</v>
       </c>
@@ -12811,7 +12744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>150</v>
       </c>
@@ -12822,7 +12755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>152</v>
       </c>
@@ -12833,7 +12766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>154</v>
       </c>
@@ -12844,7 +12777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>156</v>
       </c>
@@ -12855,7 +12788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>158</v>
       </c>
@@ -12866,7 +12799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>160</v>
       </c>
@@ -12877,7 +12810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>162</v>
       </c>
@@ -12888,7 +12821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>164</v>
       </c>
@@ -12899,7 +12832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>166</v>
       </c>
@@ -12910,7 +12843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>168</v>
       </c>
@@ -12921,7 +12854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>170</v>
       </c>
@@ -12932,7 +12865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>172</v>
       </c>
@@ -12943,7 +12876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>174</v>
       </c>
@@ -12954,7 +12887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>176</v>
       </c>
@@ -12965,7 +12898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>178</v>
       </c>
@@ -12976,7 +12909,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>180</v>
       </c>
@@ -12987,7 +12920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>182</v>
       </c>
@@ -12998,7 +12931,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>184</v>
       </c>
@@ -13009,7 +12942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>186</v>
       </c>
@@ -13020,7 +12953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>188</v>
       </c>
@@ -13031,7 +12964,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>190</v>
       </c>
@@ -13042,7 +12975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>192</v>
       </c>
@@ -13053,7 +12986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>194</v>
       </c>
@@ -13064,7 +12997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>196</v>
       </c>
@@ -13075,7 +13008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>198</v>
       </c>
@@ -13086,7 +13019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>200</v>
       </c>
@@ -13097,7 +13030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>202</v>
       </c>
@@ -13108,7 +13041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>204</v>
       </c>
@@ -13119,7 +13052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>206</v>
       </c>
@@ -13130,7 +13063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>208</v>
       </c>
@@ -13141,7 +13074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>210</v>
       </c>
@@ -13152,7 +13085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>212</v>
       </c>
@@ -13163,7 +13096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>214</v>
       </c>
@@ -13174,7 +13107,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>216</v>
       </c>
@@ -13185,7 +13118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>218</v>
       </c>
@@ -13196,7 +13129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>220</v>
       </c>
@@ -13207,7 +13140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>222</v>
       </c>
@@ -13218,7 +13151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>224</v>
       </c>
@@ -13229,7 +13162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>226</v>
       </c>
@@ -13240,7 +13173,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>228</v>
       </c>
@@ -13251,7 +13184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>230</v>
       </c>
@@ -13262,7 +13195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>232</v>
       </c>
@@ -13273,7 +13206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>234</v>
       </c>
@@ -13284,7 +13217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>236</v>
       </c>
@@ -13295,7 +13228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>238</v>
       </c>
@@ -13306,7 +13239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>240</v>
       </c>
@@ -13317,7 +13250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>242</v>
       </c>
@@ -13328,7 +13261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>244</v>
       </c>
@@ -13339,7 +13272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>246</v>
       </c>
@@ -13350,7 +13283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>248</v>
       </c>
@@ -13361,7 +13294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>250</v>
       </c>
@@ -13372,7 +13305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>252</v>
       </c>
@@ -13383,7 +13316,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>254</v>
       </c>
@@ -13394,7 +13327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>256</v>
       </c>
@@ -13405,7 +13338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>258</v>
       </c>
@@ -13416,7 +13349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>260</v>
       </c>
@@ -13427,7 +13360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>262</v>
       </c>
@@ -13438,7 +13371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>264</v>
       </c>
@@ -13449,7 +13382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>266</v>
       </c>
@@ -13460,7 +13393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>268</v>
       </c>
@@ -13471,7 +13404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>270</v>
       </c>
@@ -13482,7 +13415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>272</v>
       </c>
@@ -13493,7 +13426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>274</v>
       </c>
@@ -13504,7 +13437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>276</v>
       </c>
@@ -13515,7 +13448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>278</v>
       </c>
@@ -13526,7 +13459,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>280</v>
       </c>
@@ -13537,7 +13470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>282</v>
       </c>
@@ -13548,7 +13481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>284</v>
       </c>
@@ -13559,7 +13492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>286</v>
       </c>
@@ -13570,7 +13503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>288</v>
       </c>
@@ -13581,7 +13514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>290</v>
       </c>
@@ -13592,7 +13525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>292</v>
       </c>
@@ -13603,7 +13536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>294</v>
       </c>
@@ -13614,7 +13547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>296</v>
       </c>
@@ -13625,7 +13558,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>298</v>
       </c>
@@ -13636,7 +13569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>300</v>
       </c>
@@ -13647,7 +13580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>302</v>
       </c>
@@ -13658,7 +13591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>304</v>
       </c>
@@ -13669,7 +13602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>306</v>
       </c>
@@ -13680,7 +13613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>308</v>
       </c>
@@ -13691,7 +13624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>310</v>
       </c>
@@ -13702,7 +13635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>312</v>
       </c>
@@ -13713,7 +13646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>314</v>
       </c>
@@ -13724,7 +13657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>316</v>
       </c>
@@ -13735,7 +13668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>318</v>
       </c>
@@ -13746,7 +13679,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>320</v>
       </c>
@@ -13757,7 +13690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>322</v>
       </c>
@@ -13768,7 +13701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>324</v>
       </c>
@@ -13779,7 +13712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>326</v>
       </c>
@@ -13790,7 +13723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>328</v>
       </c>
@@ -13801,7 +13734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>330</v>
       </c>
@@ -13812,7 +13745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>332</v>
       </c>
@@ -13823,7 +13756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>334</v>
       </c>
@@ -13834,7 +13767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>336</v>
       </c>
@@ -13845,7 +13778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>338</v>
       </c>
@@ -13856,7 +13789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>340</v>
       </c>
@@ -13867,7 +13800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>342</v>
       </c>
@@ -13878,7 +13811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>344</v>
       </c>
@@ -13889,7 +13822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>346</v>
       </c>
@@ -13900,7 +13833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>348</v>
       </c>
@@ -13911,7 +13844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>350</v>
       </c>
@@ -13922,7 +13855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>352</v>
       </c>
@@ -13933,7 +13866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>354</v>
       </c>
@@ -13944,7 +13877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>356</v>
       </c>
@@ -13955,7 +13888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>358</v>
       </c>
@@ -13966,7 +13899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>360</v>
       </c>
@@ -13977,7 +13910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>362</v>
       </c>
@@ -13988,7 +13921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>364</v>
       </c>
@@ -13999,7 +13932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>366</v>
       </c>
@@ -14010,7 +13943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>368</v>
       </c>
@@ -14021,7 +13954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>370</v>
       </c>
@@ -14032,7 +13965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>372</v>
       </c>
@@ -14043,7 +13976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>374</v>
       </c>
@@ -14054,7 +13987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>376</v>
       </c>
@@ -14065,7 +13998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>378</v>
       </c>
@@ -14076,7 +14009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>380</v>
       </c>
@@ -14087,7 +14020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>382</v>
       </c>
@@ -14098,7 +14031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>384</v>
       </c>
@@ -14109,7 +14042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>386</v>
       </c>
@@ -14120,7 +14053,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>388</v>
       </c>
@@ -14131,7 +14064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>390</v>
       </c>
@@ -14142,7 +14075,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>392</v>
       </c>
@@ -14153,7 +14086,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>394</v>
       </c>
@@ -14164,7 +14097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>396</v>
       </c>
@@ -14175,7 +14108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>398</v>
       </c>
@@ -14186,7 +14119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>400</v>
       </c>
@@ -14197,7 +14130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>402</v>
       </c>
@@ -14208,7 +14141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>404</v>
       </c>
@@ -14219,7 +14152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>406</v>
       </c>
@@ -14230,7 +14163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>408</v>
       </c>
@@ -33607,7 +33540,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -33627,6 +33560,61 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
